--- a/xlsx/多元文化主义_intext.xlsx
+++ b/xlsx/多元文化主义_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
   <si>
     <t>多元文化主义</t>
   </si>
@@ -29,7 +29,7 @@
     <t>公共政策</t>
   </si>
   <si>
-    <t>政策_政策_美國_多元文化主义</t>
+    <t>政策_政策_美国_多元文化主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
@@ -53,25 +53,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%BA%9C</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E4%BC%9A</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E9%87%8D%E5%9C%8B%E7%B1%8D</t>
   </si>
   <si>
-    <t>雙重國籍</t>
+    <t>双重国籍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%A5%E7%BA%B8</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E6%85%B6</t>
   </si>
   <si>
-    <t>節慶</t>
+    <t>节庆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%A0%A1</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>日裔美國人</t>
+    <t>日裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>公立學校</t>
+    <t>公立学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%C2%B7%E6%96%AF%E5%9D%A6%E6%81%A9</t>
@@ -329,31 +329,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>德國總理</t>
+    <t>德国总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A0%BC%E6%8B%89%C2%B7%E9%BB%98%E5%85%8B%E7%88%BE</t>
   </si>
   <si>
-    <t>安格拉·默克爾</t>
+    <t>安格拉·默克尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E</t>
   </si>
   <si>
-    <t>德語</t>
+    <t>德语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E7%A7%BB%E6%B0%91%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>歐洲移民危機</t>
+    <t>欧洲移民危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E5%A7%A6</t>
   </si>
   <si>
-    <t>強姦</t>
+    <t>强奸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E4%BE%B5%E7%8A%AF</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%AD%A3%E7%A2%BA</t>
   </si>
   <si>
-    <t>政治正確</t>
+    <t>政治正确</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
@@ -383,13 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/2015%E5%B9%B411%E6%9C%88%E5%B7%B4%E9%BB%8E%E8%A5%B2%E6%93%8A%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>2015年11月巴黎襲擊事件</t>
+    <t>2015年11月巴黎袭击事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>伊斯蘭恐怖主義</t>
+    <t>伊斯兰恐怖主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%90%88%E4%B8%80</t>
@@ -407,25 +407,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F</t>
   </si>
   <si>
-    <t>欧盟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>伊斯蘭國</t>
+    <t>伊斯兰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%88%B0%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>聖戰主義</t>
+    <t>圣战主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E5%B0%BC%E6%96%AF%E8%A5%B2%E6%93%8A%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>2016年尼斯襲擊事件</t>
+    <t>2016年尼斯袭击事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%A6%96%E7%9B%B8</t>
   </si>
   <si>
-    <t>英國首相</t>
+    <t>英国首相</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%C2%B7%E5%8D%A1%E6%A2%85%E4%BC%A6</t>
@@ -455,19 +452,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%AB%98%E7%AD%89%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>英國高等法院</t>
+    <t>英国高等法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E4%BD%9B%E5%88%A9_(%E8%A8%98%E8%80%85)</t>
   </si>
   <si>
-    <t>詹姆斯·佛利 (記者)</t>
+    <t>詹姆斯·佛利 (记者)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E5%92%8C%E9%BB%8E%E5%87%A1%E7%89%B9%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>伊拉克和黎凡特伊斯蘭國</t>
+    <t>伊拉克和黎凡特伊斯兰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E7%89%B9%E4%BC%AF%E9%87%8C%E5%A4%A7%E4%B8%BB%E6%95%99</t>
@@ -479,31 +476,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E8%AD%BD%E6%AE%BA%E4%BA%BA</t>
   </si>
   <si>
-    <t>名譽殺人</t>
+    <t>名誉杀人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E5%89%B2%E7%A6%AE</t>
   </si>
   <si>
-    <t>女性割禮</t>
+    <t>女性割礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E6%B3%95</t>
   </si>
   <si>
-    <t>伊斯蘭教法</t>
+    <t>伊斯兰教法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%91%9F%E5%8B%92%E5%A7%86%E6%80%A7%E4%BE%B5%E6%A1%88</t>
   </si>
   <si>
-    <t>羅瑟勒姆性侵案</t>
+    <t>罗瑟勒姆性侵案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%91%9F%E5%8B%92%E5%A7%86</t>
   </si>
   <si>
-    <t>羅瑟勒姆</t>
+    <t>罗瑟勒姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -515,19 +512,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B8%E6%97%8F%E8%A3%94</t>
   </si>
   <si>
-    <t>少數族裔</t>
+    <t>少数族裔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E6%AD%A7%E8%A6%96</t>
   </si>
   <si>
-    <t>種族歧視</t>
+    <t>种族歧视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E5%9C%B0</t>
   </si>
   <si>
-    <t>飛地</t>
+    <t>飞地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E5%B0%94%C2%B7%E7%89%B9%E9%B2%81%E5%A4%9A</t>
@@ -629,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -641,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83%E6%96%87%E5%8C%96%E4%B8%BB%E7%BE%A9</t>
@@ -2877,7 +2874,7 @@
         <v>129</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="G65" t="n">
         <v>4</v>
@@ -2903,10 +2900,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -2932,10 +2929,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2961,10 +2958,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2990,10 +2987,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3019,10 +3016,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3048,10 +3045,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3077,10 +3074,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3135,10 +3132,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3164,10 +3161,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3193,10 +3190,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3222,10 +3219,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3251,10 +3248,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3280,10 +3277,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3309,10 +3306,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3338,10 +3335,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3367,10 +3364,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -3396,10 +3393,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3425,10 +3422,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3454,10 +3451,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -3483,10 +3480,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3512,10 +3509,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3541,10 +3538,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -3570,10 +3567,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3599,10 +3596,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -3628,10 +3625,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3657,10 +3654,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3686,10 +3683,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>8</v>
@@ -3715,10 +3712,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3744,10 +3741,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3773,10 +3770,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>62</v>
@@ -3802,10 +3799,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3831,10 +3828,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3860,10 +3857,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3889,10 +3886,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>166</v>
+      </c>
+      <c r="F100" t="s">
         <v>167</v>
-      </c>
-      <c r="F100" t="s">
-        <v>168</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3918,10 +3915,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3947,10 +3944,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -3976,10 +3973,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4005,10 +4002,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -4034,10 +4031,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4063,10 +4060,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4092,10 +4089,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -4121,10 +4118,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F108" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
